--- a/jeecg组件功能.xlsx
+++ b/jeecg组件功能.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="业务组件" sheetId="1" r:id="rId1"/>
+    <sheet name="布局组件" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,15 +93,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>src\components\dict</t>
+  </si>
+  <si>
+    <t>JDictSelectTag
+JMultiSelectTag
+JSearchSelectTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典标签组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDictSelectTag</t>
+    <t xml:space="preserve">Bar
+BarMultid
+MiniBar
+AreaChartTy
+LineChartMultid
+Pie
+Radar
+MiniProgress
+DashChartDemo
+RankList
+BarAndLine
+IndexBar
+Liquid
+MiniArea
+StackBar
+transferBar
+Trend
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar：柱状图
+BarMultid：多列柱状图
+MiniBar：迷你柱状图
+AreaChartTy：面积图
+LineChartMultid：多行折线图
+Pie：饼图
+Radar：雷达图
+MiniProgress：进度条
+DashChartDemo：仪表盘
+RankList：排名列表
+BarAndLine：有线也有柱状图
+IndexBar：和Bar类似
+Liquid：液体
+MiniArea：迷你面积
+StackBar:堆状柱状图
+transferBar：和Bar类似
+Trend:趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 字符串超长截取省略号显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellipsis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\Ellipsis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellipsis：遇到超长文本展示，通过此标签可以截取省略号显示，鼠标放置会提示全文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间选择组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\jeecg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\CountDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>markDown编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：http://doc.jeecg.com/2044023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：http://doc.jeecg.com/2044015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：http://doc.jeecg.com/2044014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：https://github.com/hejun-ifytek/jeecg-boot-FE/wiki/chart_doc
+演示详情：http://boot.jeecg.com/report/ViserChartDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：https://github.com/hejun-ifytek/jeecg-boot-FE/wiki/dict_doc
+演示详情：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JDictSelectTag：字典表获取数据，下拉单选
+JMultiSelectTag：字典表获取数据，下拉多选
+JSearchSelectTag：字典表获取数据，下拉单选（可同步或者异步搜索）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\jeecg\JMarkdownEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMarkdownEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个倒计时组件，简单描述,该组件有3个属性。
+target：(时间/毫秒数)必填。
+format：(function,该方法接收一个毫秒数的参数,用于格式化显示当前倒计时时间)非必填。
+onEnd：倒计时结束触发函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>markdown在线编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,21 +327,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,264 +658,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="77.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jeecg组件功能.xlsx
+++ b/jeecg组件功能.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,47 +33,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 字符串超长截取省略号显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ellipsis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,14 +132,6 @@
   </si>
   <si>
     <t>时间选择组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\components\jeecg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src\components\jeecg\JMarkdownEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JMarkdownEditor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,11 +199,530 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>markdown在线编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\jeecg</t>
+  </si>
+  <si>
+    <t>src\components\jeecg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用markdown语法写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.控制弹窗是否全屏
+2.含有切换全屏按钮（允许后右上角会出现一个是否全屏的图标按钮）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVxe表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVxeTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JInputPop</t>
+  </si>
+  <si>
+    <t>JPopupOnlReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAreaLinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCategorySelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCodeEditor</t>
+  </si>
+  <si>
+    <t>Jcron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEditableTable</t>
+  </si>
+  <si>
+    <t>JEllipsis</t>
+  </si>
+  <si>
+    <t>JFormContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JImageUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JImportModal</t>
+  </si>
+  <si>
+    <t>JInput</t>
+  </si>
+  <si>
+    <t>JPopup</t>
+  </si>
+  <si>
+    <t>JSelectMultiple</t>
+  </si>
+  <si>
+    <t>JSlider</t>
+  </si>
+  <si>
+    <t>JSuperQuery</t>
+  </si>
+  <si>
+    <t>JSwitch</t>
+  </si>
+  <si>
+    <t>JTime</t>
+  </si>
+  <si>
+    <t>JTreeDict</t>
+  </si>
+  <si>
+    <t>JTreeSelect</t>
+  </si>
+  <si>
+    <t>JTreeTable</t>
+  </si>
+  <si>
+    <t>JUpload</t>
+  </si>
+  <si>
+    <t>src\components\jeecg\modal</t>
+  </si>
+  <si>
+    <t>src\components\jeecg\minipop</t>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
+文档：http://doc.jeecg.com/2043991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在线编辑表格，可即时编辑即时保存。JVXETable基于vxe-table组件开发，详情查看文档
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">antd-vue日期组件需要用moment中转一下，使用时只需要传字符串即可。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">演示详情：http://boot.jeecg.com/jeecg/JEditableTable
+文档：http://doc.jeecg.com/2043998
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">过长剪切，与Ellipsis功能相同，但是实现方法不同，框架中主要使用的过长剪切是此组件。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过长剪切（1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过长剪切（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编辑表格，用法和JVXETable类似但功能没有其强大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JFilePop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCronModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cron生成器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cron表达式通过特定的规则指定时间，用于定时任务。通过选定时间，自动生成cron的表达式。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCron模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">弹出框中以表格形式体现，能够展示更多的数据。选中数据，点击确定将选中数据添加到输入框中。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选下拉框组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">online用，实际开发请使用components/dict/JMultiSelectTag
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向右滑动验证功能组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级查询组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗选择组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPopup模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044012
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+tinymce整合vue文档:https://www.tiny.cloud/docs/integrations/vue/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">富文本编辑器，基于tinymce封装。结合tinymce和JEditor来了解用法
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEditable表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市县三级联动组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
+文档：http://doc.jeecg.com/2044013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">选择省市县。v-model绑定的是具体某个地方的邮政编码
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊查询组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主要特殊查询组件，支持模糊查询、大于等于查询、小于等于查询、不匹配查询
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textarea弹出框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JVxeTable和JEditTable可编辑表格弹出的多行文本编辑框。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCron其主要功能组件，不单独使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JPopup其主要功能组件，不单独使用。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入代码，高亮显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类字典选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择时，显示父子层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;分类字典树：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antd-vue checkbox组件处理的是数组，二次封装，使用时处理字符串即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件弹出框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">演示详情-&gt;高级案例：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JVxeTable和JEditTable可编辑表格文件上传和图片上传之后，点击[设置图标]-&gt;[更多]出现模态框，里面显示详情。不单独使用，被可编辑表格引入作为上传文件和图片使用。
+此组件被引用的文件：src\components\JVxeCells\JVxeImageCell.vue 和src\components\JVxeCells\JVxeFileCell.vue
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过类似sql语句查询的方式来进行搜索数据
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列表页面导入excel功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表导入exce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：http://doc.jeecg.com/2044020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +817,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="A1:H25"/>
+    <sheetView topLeftCell="B1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -680,25 +1146,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -708,23 +1174,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -734,23 +1200,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -760,291 +1226,445 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>49</v>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+    <row r="19" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1052,11 +1672,17 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1064,19 +1690,500 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1090,7 +2197,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1105,25 +2212,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/jeecg组件功能.xlsx
+++ b/jeecg组件功能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="业务组件" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="185">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,10 +262,6 @@
     <t>JCodeEditor</t>
   </si>
   <si>
-    <t>Jcron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JEditableTable</t>
   </si>
   <si>
@@ -470,10 +466,6 @@
   <si>
     <t xml:space="preserve">在线编辑表格，可即时编辑即时保存。JVXETable基于vxe-table组件开发，详情查看文档
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,15 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过长剪切（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可编辑表格，用法和JVXETable类似但功能没有其强大。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,10 +530,6 @@
   <si>
     <t xml:space="preserve">online用，实际开发请使用components/dict/JMultiSelectTag
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑块验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>富文本编辑器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
 tinymce整合vue文档:https://www.tiny.cloud/docs/integrations/vue/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,10 +572,6 @@
   <si>
     <t xml:space="preserve">富文本编辑器，基于tinymce封装。结合tinymce和JEditor来了解用法
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JEditable表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -718,11 +689,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表导入exce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文档：http://doc.jeecg.com/2044020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂用于表单禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档：http://doc.jeecg.com/2044022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表导入excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;图片上传：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swith组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无官方文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于a-switch和a-select封装而成。
+1.传入query属性为true则为下拉框形式。
+2.传入query属性为false则为开关形式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Jdate组件类似，内部使用moment转化了时间，使用时直接传字符串即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类字典树形下拉组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑块验证码组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过长剪切组件（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单容器组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本编辑器组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEditable表格组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkbox组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;树字典: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步树表格组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+演示详情-&gt;下拉树选择: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情:http://boot.jeecg.com/jeecg/JeecgTreeTable
+文档：http://doc.jeecg.com/2044021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传，下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步树表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
@@ -1247,7 +1344,7 @@
     </row>
     <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>21</v>
@@ -1273,7 +1370,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>24</v>
@@ -1299,7 +1396,7 @@
     </row>
     <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>36</v>
@@ -1323,7 +1420,7 @@
     </row>
     <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>43</v>
@@ -1338,37 +1435,37 @@
         <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1378,17 +1475,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1397,20 +1494,20 @@
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1419,20 +1516,20 @@
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1441,10 +1538,10 @@
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
@@ -1454,21 +1551,21 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
@@ -1478,43 +1575,45 @@
         <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
@@ -1524,55 +1623,55 @@
         <v>37</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1583,353 +1682,395 @@
     </row>
     <row r="19" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
@@ -1941,7 +2082,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
@@ -1953,7 +2094,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
@@ -1965,7 +2106,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -2196,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/jeecg组件功能.xlsx
+++ b/jeecg组件功能.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="267">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,11 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档：https://github.com/hejun-ifytek/jeecg-boot-FE/wiki/dict_doc
-演示详情：http://boot.jeecg.com/jeecg/SelectDemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">JDictSelectTag：字典表获取数据，下拉单选
 JMultiSelectTag：字典表获取数据，下拉多选
 JSearchSelectTag：字典表获取数据，下拉单选（可同步或者异步搜索）
@@ -228,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JVxe表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,18 +279,12 @@
     <t>JSelectMultiple</t>
   </si>
   <si>
-    <t>JSlider</t>
-  </si>
-  <si>
     <t>JSuperQuery</t>
   </si>
   <si>
     <t>JSwitch</t>
   </si>
   <si>
-    <t>JTime</t>
-  </si>
-  <si>
     <t>JTreeDict</t>
   </si>
   <si>
@@ -451,11 +436,6 @@
   </si>
   <si>
     <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
-文档：http://doc.jeecg.com/2043991</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,11 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多选下拉框组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,11 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向右滑动验证功能组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,19 +524,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044012
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JEditor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-tinymce整合vue文档:https://www.tiny.cloud/docs/integrations/vue/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -598,11 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>textarea弹出框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,11 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类字典选择器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,35 +590,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCheckbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示详情-&gt;分类字典树：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>antd-vue checkbox组件处理的是数组，二次封装，使用时处理字符串即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件弹出框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">演示详情-&gt;高级案例：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -714,11 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情-&gt;图片上传：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与Jdate组件类似，内部使用moment转化了时间，使用时直接传字符串即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类字典树形下拉组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,12 +692,701 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>演示详情：http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>树形下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步树表格组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情:http://boot.jeecg.com/jeecg/JeecgTreeTable
+文档：http://doc.jeecg.com/2044021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步树表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contextmenu.vue
+SideMenu.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统布局相关组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <r>
+      <t>BasicLayout.vue:重定向到首页展示的，现在展示组件已改成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TabLayout.vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BlankLayout.vue:重定向到/test/home页面，展示Home的内容
+IframeFReportView.vue:和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IframePageView.vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代码功能一致，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+IframePageView.vue:Iframe页面，是作为UserMenu.vue的判断条件，并未在组件中使用
+PageView.vue:引入pageLayout，并未使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RouteView.vue:出口文件
+TabLayout.vue:引入GlobalLayout，面包屑导航右击事件
+UserLayout.vue:登录页，我们自己的项目使用的是sso登录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Breadcrumb.vue
+DetailList.vue
+DynamicNotice.vue
+FooterToolBar.vue
+HeaderNotice.vue
+HeaderInfo.vue
+Logo.vue
+UserMenu.vue
+ShowAnnouncement.vue
+TwoStepCapture.vue
+UserPassword.vue
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trend包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/Trend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/page + src/components/layouts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是系统页面布局相关组件，登录成功之后页面顶部、底部显示什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalHeader.vue
+GlobalFooter.vue
+GlobalLayout.vue
+PageHeader.vue
+PageLayout.vue
+SHeaderNotice.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GlobalHeader.vue:使用antd中的layout布局布局头部
+GlobalFooter.vue:全局底部
+GlobalLayout.vue:使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GlobalHeader.vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GlobalFooter.vue:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">上下左右布局以及侧边菜单与横向菜单如何展示
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PageHeader.vue:面包鞋导航，顶部头像那块内容
+PageLayout.vue:使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PageHeader.vue以及搜索项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SHeaderNotice.vue:并未使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicLayout.vue
+BlankLayout.vue
+IframeFReportView.vue
+IframePageView.vue
+PageView.vue
+RouteView.vue
+TabLayout.vue
+UserLayout.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/layouts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Breadcrumb.vue:面包屑导航
+DetailList.vue:页面详情展示【https://static.oschina.net/uploads/img/201904/12193954_Uar6.png】
+DynamicNotice.vue:动态组件，渲染一个“元组件”为动态组件，通过is判断
+FooterToolBar.vue:fixed定位的底部，通过是否定义内部控件的属性slot="extra"决定是左浮动或是右浮动
+HeaderNotice.vue:顶部铃铛部分内容
+HeaderInfo.vue:上下文字布局【https://static.oschina.net/uploads/img/201904/12195638_dG5o.png】
+Logo.vue:左上方Logo图片
+UserMenu.vue:首页右上侧内容【https://static.oschina.net/uploads/img/201904/12201226_laQK.png】
+ShowAnnouncement.vue:查看铃铛下面的信息
+TwoStepCapture.vue:在Login页面中引入，未使用，且系统使用sso登录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+UserPassword.vue:密码输入框，头像下面的【密码修改】模块中的页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend.vue:趋势显示组件【(https://static.oschina.net/uploads/img/201904/12201600_Wo8K.png】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">演示详情-&gt;高级案例：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;高级案例：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+文档：https://github.com/hejun-ifytek/jeecg-boot-FE/wiki/s-table_docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与JDate组件类似，内部使用moment转化了时间，使用时直接传字符串即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形下拉框，从字典获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形下拉框，从数据库获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在a-table的基础上，封装了加载数据的方法，分页等
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contextmenu.vue:菜单
+SideMenu.vue:侧边菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示头像群并支持tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.vue
+List.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/AvatarList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.vue:显示头像群并支持tip
+List.vue:代码被注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingDrawer.vue
+SettingItem.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/components/setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SettingDrawer.vue:首页风格切换
+SettingItem.vue:在SettingDrawer中引用，但并未使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建议删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\components\jeecgbiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSelectBizComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">选择用户，部门，职务等组件的公共可复用组件（modal框），不单独使用
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文档：https://github.com/hejun-ifytek/jeecg-boot-FE/wiki/JSelectBizComponent_docs
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门选择等可复用组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSelectDepart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门选择组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">选择部门组件,存储部门ID,显示部门名称
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSelectMultiUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户多选组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSelectPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务选择组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示文档-&gt;[选择用户]: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示文档-&gt;[选择职务]：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色选择组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示文档-&gt;[选择角色]：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSelectUserByDep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据部门选择用户组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示文档-&gt;[选择用户]：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据部门选择用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+演示详情-&gt;[下拉树选择]: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档-&gt;[字典表下拉][字典下拉(多选)][字典搜索(同步)]：https://github.com/hejun-ifytek/jeecg-boot-FE/wiki/dict_doc
+演示详情：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[JModal弹窗]：http://boot.jeecg.com/jeecg/SelectDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情：http://boot.jeecg.com/jeecg/j-vxe-table-demo/normal
+文档：http://doc.jeecg.com/2043991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[分类字典树]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[代码输入框] http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[多选组合]: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[文件上传]: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示文档-&gt;[选择部门]: http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,35 +1395,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>异步树表格组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
-演示详情-&gt;下拉树选择: http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示详情:http://boot.jeecg.com/jeecg/JeecgTreeTable
-文档：http://doc.jeecg.com/2044021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件上传，下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步树表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示详情: http://boot.jeecg.com/jeecg/SelectDemo
-文档：http://doc.jeecg.com/2044010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件上传组件</t>
+演示详情-&gt;[高级查询]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044012
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSlider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[滑块验证码]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[多选下拉框]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[JPopup示例]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[特殊查询组件]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[图片上传]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[富文本编辑器]：http://boot.jeecg.com/jeecg/SelectDemo
+tinymce整合vue文档:https://www.tiny.cloud/docs/integrations/vue/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示详情-&gt;[cron表达式]：http://boot.jeecg.com/jeecg/SelectDemo
+文档：http://doc.jeecg.com/2044008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +1457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +1481,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -860,7 +1506,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -883,11 +1529,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,12 +1567,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,15 +1886,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="37.5546875" customWidth="1"/>
     <col min="6" max="7" width="32.33203125" customWidth="1"/>
@@ -1246,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -1258,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>14</v>
@@ -1274,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>10</v>
@@ -1283,11 +1946,11 @@
         <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1300,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -1323,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
@@ -1344,13 +2007,13 @@
     </row>
     <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -1359,7 +2022,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
@@ -1370,22 +2033,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
@@ -1396,76 +2059,80 @@
     </row>
     <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1475,39 +2142,41 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1516,20 +2185,22 @@
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1538,140 +2209,152 @@
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
@@ -1682,472 +2365,602 @@
     </row>
     <row r="19" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>142</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="7" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="A40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="A41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="A42" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -2157,7 +2970,9 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
@@ -2167,7 +2982,9 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -2177,7 +2994,9 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -2187,7 +3006,9 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -2335,126 +3156,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="295.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="319.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -2462,9 +3348,8 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -2472,9 +3357,8 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -2482,9 +3366,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -2492,9 +3375,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
@@ -2502,9 +3384,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -2512,9 +3393,8 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -2522,9 +3402,8 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2532,9 +3411,8 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -2542,9 +3420,8 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -2552,9 +3429,8 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -2562,9 +3438,8 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -2572,9 +3447,8 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2582,9 +3456,8 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -2592,9 +3465,8 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -2602,14 +3474,14 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>